--- a/Evaluation/Recall Base.xlsx
+++ b/Evaluation/Recall Base.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="2300" windowWidth="14400" windowHeight="9660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
   <si>
     <t>N_rel</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>Pos_pos</t>
+  </si>
+  <si>
+    <t>Twitter4Beer</t>
+  </si>
+  <si>
+    <t>Reuters Standard</t>
   </si>
 </sst>
 </file>
@@ -80,8 +86,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
@@ -359,175 +368,329 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A2:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="L2" sqref="L2:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
         <v>0</v>
       </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
         <v>3</v>
       </c>
-      <c r="F4">
+      <c r="M4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="F8">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>6</v>
+      </c>
+      <c r="Q10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>7</v>
       </c>
-      <c r="F8">
+      <c r="F11">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="L11">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>8</v>
       </c>
-      <c r="F9">
+      <c r="F12">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="L12">
+        <v>8</v>
+      </c>
+      <c r="Q12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>9</v>
       </c>
-      <c r="F10">
+      <c r="F13">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="L13">
+        <v>9</v>
+      </c>
+      <c r="Q13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>10</v>
       </c>
-      <c r="F11">
+      <c r="F14">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="Q14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>11</v>
       </c>
-      <c r="F12">
+      <c r="F15">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="L15">
+        <v>11</v>
+      </c>
+      <c r="Q15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>12</v>
       </c>
-      <c r="F13">
+      <c r="F16">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="L16">
+        <v>12</v>
+      </c>
+      <c r="Q16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>13</v>
       </c>
-      <c r="F14">
+      <c r="F17">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="L17">
+        <v>13</v>
+      </c>
+      <c r="Q17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>14</v>
       </c>
-      <c r="F15">
+      <c r="F18">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="L18">
+        <v>14</v>
+      </c>
+      <c r="Q18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>15</v>
       </c>
-      <c r="F16">
+      <c r="F19">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="L19">
+        <v>15</v>
+      </c>
+      <c r="Q19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="L2:T2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Evaluation/Recall Base.xlsx
+++ b/Evaluation/Recall Base.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tom/Desktop/TwitterBeer/Evaluation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aldu/Desktop/Uni/4.Semester/Vertiefungsseminar Information Retrieval/Projekt/TwitterBeer/Evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -86,11 +86,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
@@ -368,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T23"/>
+  <dimension ref="A2:T73"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:T2"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -454,27 +455,99 @@
       <c r="A5">
         <v>1</v>
       </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
       <c r="F5">
         <v>1</v>
       </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
       <c r="L5">
         <v>1</v>
       </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>6</v>
+      </c>
+      <c r="O5">
+        <v>12</v>
+      </c>
       <c r="Q5">
         <v>1</v>
+      </c>
+      <c r="R5">
+        <v>10</v>
+      </c>
+      <c r="S5">
+        <v>8</v>
+      </c>
+      <c r="T5">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
+      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
       <c r="F6">
         <v>2</v>
       </c>
+      <c r="G6">
+        <v>18</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
       <c r="L6">
         <v>2</v>
       </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
       <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
         <v>2</v>
       </c>
     </row>
@@ -482,111 +555,399 @@
       <c r="A7">
         <v>3</v>
       </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
       <c r="F7">
         <v>3</v>
       </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
       <c r="L7">
         <v>3</v>
       </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
       <c r="Q7">
         <v>3</v>
       </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
       <c r="F8">
         <v>4</v>
       </c>
+      <c r="G8" s="2">
+        <v>12</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
       <c r="L8">
         <v>4</v>
       </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
       <c r="Q8">
         <v>4</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
       <c r="F9">
         <v>5</v>
       </c>
+      <c r="G9" s="2">
+        <v>11</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
       <c r="L9">
         <v>5</v>
       </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
       <c r="Q9">
         <v>5</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
       <c r="F10">
         <v>6</v>
       </c>
+      <c r="G10" s="2">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
       <c r="L10">
         <v>6</v>
       </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
       <c r="Q10">
         <v>6</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
       <c r="F11">
         <v>7</v>
       </c>
+      <c r="G11" s="2">
+        <v>50</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2</v>
+      </c>
       <c r="L11">
         <v>7</v>
       </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
       <c r="Q11">
         <v>7</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>2</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
       <c r="F12">
         <v>8</v>
       </c>
+      <c r="G12" s="2">
+        <v>7</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
       <c r="L12">
         <v>8</v>
       </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
       <c r="Q12">
         <v>8</v>
       </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
+      <c r="B13">
+        <v>103</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
       <c r="F13">
         <v>9</v>
       </c>
+      <c r="G13" s="2">
+        <v>103</v>
+      </c>
+      <c r="H13" s="2">
+        <v>10</v>
+      </c>
+      <c r="I13" s="2">
+        <v>10</v>
+      </c>
       <c r="L13">
         <v>9</v>
       </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>10</v>
+      </c>
       <c r="Q13">
         <v>9</v>
+      </c>
+      <c r="R13">
+        <v>10</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
+      <c r="B14">
+        <v>103</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
       <c r="F14">
         <v>10</v>
       </c>
+      <c r="G14" s="2">
+        <v>103</v>
+      </c>
+      <c r="H14" s="2">
+        <v>10</v>
+      </c>
+      <c r="I14" s="2">
+        <v>10</v>
+      </c>
       <c r="L14">
         <v>10</v>
       </c>
+      <c r="M14">
+        <v>10</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>10</v>
+      </c>
       <c r="Q14">
+        <v>10</v>
+      </c>
+      <c r="R14">
+        <v>10</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
         <v>10</v>
       </c>
     </row>
@@ -594,70 +955,50 @@
       <c r="A15">
         <v>11</v>
       </c>
+      <c r="B15">
+        <v>103</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
       <c r="F15">
         <v>11</v>
       </c>
+      <c r="G15" s="2">
+        <v>103</v>
+      </c>
+      <c r="H15" s="2">
+        <v>10</v>
+      </c>
+      <c r="I15" s="2">
+        <v>10</v>
+      </c>
       <c r="L15">
         <v>11</v>
       </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>10</v>
+      </c>
       <c r="Q15">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>12</v>
-      </c>
-      <c r="F16">
-        <v>12</v>
-      </c>
-      <c r="L16">
-        <v>12</v>
-      </c>
-      <c r="Q16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>13</v>
-      </c>
-      <c r="F17">
-        <v>13</v>
-      </c>
-      <c r="L17">
-        <v>13</v>
-      </c>
-      <c r="Q17">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>14</v>
-      </c>
-      <c r="F18">
-        <v>14</v>
-      </c>
-      <c r="L18">
-        <v>14</v>
-      </c>
-      <c r="Q18">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>15</v>
-      </c>
-      <c r="F19">
-        <v>15</v>
-      </c>
-      <c r="L19">
-        <v>15</v>
-      </c>
-      <c r="Q19">
-        <v>15</v>
+      <c r="R15">
+        <v>10</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
@@ -684,6 +1025,904 @@
       </c>
       <c r="R23" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>5</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>7</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>6</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>7</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>12</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>12</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>13</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>13</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>18</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>17</v>
+      </c>
+      <c r="L32">
+        <v>4</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>2</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>18</v>
+      </c>
+      <c r="L33">
+        <v>4</v>
+      </c>
+      <c r="M33">
+        <v>2</v>
+      </c>
+      <c r="Q33">
+        <v>2</v>
+      </c>
+      <c r="R33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>5</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>4</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>7</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>4</v>
+      </c>
+      <c r="R35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>7</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+      <c r="Q36">
+        <v>5</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>8</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>7</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>10</v>
+      </c>
+      <c r="M38">
+        <v>5</v>
+      </c>
+      <c r="Q38">
+        <v>7</v>
+      </c>
+      <c r="R38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>11</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>8</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>6</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="Q40">
+        <v>10</v>
+      </c>
+      <c r="R40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>7</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>11</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>7</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>8</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>9</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>9</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>9</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="F47">
+        <v>9</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>9</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="F48">
+        <v>9</v>
+      </c>
+      <c r="G48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>9</v>
+      </c>
+      <c r="B49">
+        <v>7</v>
+      </c>
+      <c r="F49">
+        <v>9</v>
+      </c>
+      <c r="G49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>9</v>
+      </c>
+      <c r="B50">
+        <v>8</v>
+      </c>
+      <c r="F50">
+        <v>9</v>
+      </c>
+      <c r="G50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>9</v>
+      </c>
+      <c r="F51">
+        <v>9</v>
+      </c>
+      <c r="G51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>9</v>
+      </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="F52">
+        <v>9</v>
+      </c>
+      <c r="G52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>10</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>9</v>
+      </c>
+      <c r="G53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>10</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>10</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>10</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <v>10</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>10</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>10</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>10</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+      <c r="G58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>10</v>
+      </c>
+      <c r="B59">
+        <v>7</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+      <c r="G59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>10</v>
+      </c>
+      <c r="B60">
+        <v>8</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+      <c r="G60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>10</v>
+      </c>
+      <c r="B61">
+        <v>9</v>
+      </c>
+      <c r="F61">
+        <v>10</v>
+      </c>
+      <c r="G61">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>10</v>
+      </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+      <c r="G62">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>11</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>10</v>
+      </c>
+      <c r="G63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>11</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>11</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>11</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="F65">
+        <v>11</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>11</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="F66">
+        <v>11</v>
+      </c>
+      <c r="G66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>11</v>
+      </c>
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="F67">
+        <v>11</v>
+      </c>
+      <c r="G67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>11</v>
+      </c>
+      <c r="B68">
+        <v>6</v>
+      </c>
+      <c r="F68">
+        <v>11</v>
+      </c>
+      <c r="G68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>11</v>
+      </c>
+      <c r="B69">
+        <v>7</v>
+      </c>
+      <c r="F69">
+        <v>11</v>
+      </c>
+      <c r="G69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>11</v>
+      </c>
+      <c r="B70">
+        <v>8</v>
+      </c>
+      <c r="F70">
+        <v>11</v>
+      </c>
+      <c r="G70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>11</v>
+      </c>
+      <c r="B71">
+        <v>9</v>
+      </c>
+      <c r="F71">
+        <v>11</v>
+      </c>
+      <c r="G71">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>11</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="F72">
+        <v>11</v>
+      </c>
+      <c r="G72">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F73">
+        <v>11</v>
+      </c>
+      <c r="G73">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
